--- a/액션&경영 RPG/데이터테이블/리트루기아_유저테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_유저테이블.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2EA40C-896C-44C9-9E2A-3182EA230371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784298A4-6C60-4EE1-AFCA-2AE3AAF659CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="615" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
+    <sheet name="User Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
     <author>KHmedia</author>
   </authors>
   <commentList>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{A2026550-21EF-475E-BA26-07F65F3D33B9}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{A2026550-21EF-475E-BA26-07F65F3D33B9}">
       <text>
         <r>
           <rPr>
@@ -261,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터의 현재 모험가 등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터의 최대 레벨 (최대 레벨은 모험가 등급에 따라 다름)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,16 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장착한 무기 중 캐릭터가 현재 사용중인 무기의 index
-(Weapon Table의 index)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착한 무기 중 현재 사용중이 아닌 무기의 index
-(Weapon Table의 index)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>helmet_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,31 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장착중인 머리 방어구의 index
-(Armor Table의 index)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착중인 상의 방어구의 index
-(Armor Table의 index)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착중인 하의 방어구의 index
-(Armor Table의 index)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착중인 신발 방어구의 index
-(Armor Table의 index)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 모델의 index
-(Model Table의 index)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cur_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,6 +457,10 @@
   </si>
   <si>
     <t>is_mastery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,14 +477,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>( 0: 강인 / 1: 온화 / 2: 집중 / 3: 재주 / 4: 언변)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">마스터리 여부 
-</t>
+      <t>0: 강인 / 1: 온화 / 2: 집중 / 3: 재주 / 4: 언변</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">마스터리 여부  </t>
     </r>
     <r>
       <rPr>
@@ -529,8 +494,234 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>( 0: 무기 두개 장착 / 1: 무기 하나만 장착)</t>
-    </r>
+      <t>(0: 무기 두개 장착 / 1: 무기 하나만 장착)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">장착한 무기 중 캐릭터가 현재 사용중인 무기의 index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Weapon Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">장착한 무기 중 현재 사용중이 아닌 무기의 index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Weapon Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">장착중인 머리 방어구의 index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Armor Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">장착중인 상의 방어구의 index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Armor Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">장착중인 하의 방어구의 index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Armor Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">장착중인 신발 방어구의 index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Armor Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">캐릭터 모델의 index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Model Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">캐릭터의 현재 상태
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0: 평화 / 1: 전투 / 2: 던전 내 사망 / 3: 에고 고갈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur_mazed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">캐릭터의 현재 군중 제어 상태
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0: 기본 / 1: 다운 / 2: 에어본 / 3: 기절 / 4: 속박 / 5: 빙결</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍진선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pw</t>
+  </si>
+  <si>
+    <t>user_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hjs0913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 로그인 id (8~20자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 로그인 password (8~20자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">캐릭터의 현재 모험가 등급
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0: C / 1: B / 2: A / 3: S / 4: SS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongjinsun96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1q2w3e4r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진진선선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +729,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +790,23 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -614,7 +822,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -835,11 +1043,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,6 +1156,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E31"/>
+  <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1219,326 +1496,364 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="8" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="E21" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
-      <c r="C25" s="17" t="s">
-        <v>29</v>
+      <c r="C25" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="E25" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
-      <c r="C26" s="17" t="s">
-        <v>30</v>
+      <c r="C26" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
-      <c r="C27" s="17" t="s">
-        <v>31</v>
+      <c r="C27" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>36</v>
+      <c r="E27" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
-      <c r="C28" s="17" t="s">
-        <v>32</v>
+      <c r="C28" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>37</v>
+      <c r="E28" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+      <c r="C30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1546,4 +1861,267 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB9E15C-8928-43D3-A268-EC6A965A2BD6}">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="13.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="20" customWidth="1"/>
+    <col min="4" max="22" width="9" style="20"/>
+    <col min="23" max="23" width="9.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="20"/>
+    <col min="28" max="28" width="10.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>100000</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="20">
+        <v>12341234</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="20">
+        <v>4</v>
+      </c>
+      <c r="F2" s="20">
+        <v>100</v>
+      </c>
+      <c r="G2" s="20">
+        <v>99</v>
+      </c>
+      <c r="H2" s="20">
+        <v>999999</v>
+      </c>
+      <c r="I2" s="20">
+        <v>999999</v>
+      </c>
+      <c r="J2" s="20">
+        <v>999999</v>
+      </c>
+      <c r="K2" s="20">
+        <v>999999</v>
+      </c>
+      <c r="L2" s="20">
+        <v>999999</v>
+      </c>
+      <c r="M2" s="20">
+        <v>999999</v>
+      </c>
+      <c r="N2" s="20">
+        <v>99</v>
+      </c>
+      <c r="O2" s="20">
+        <v>99</v>
+      </c>
+      <c r="P2" s="20">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>99</v>
+      </c>
+      <c r="R2" s="20">
+        <v>99</v>
+      </c>
+      <c r="S2" s="20">
+        <v>99</v>
+      </c>
+      <c r="T2" s="20">
+        <v>0</v>
+      </c>
+      <c r="U2" s="20">
+        <v>0</v>
+      </c>
+      <c r="V2" s="20">
+        <v>0</v>
+      </c>
+      <c r="W2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>100001</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="20">
+        <v>3</v>
+      </c>
+      <c r="F3" s="20">
+        <v>80</v>
+      </c>
+      <c r="G3" s="20">
+        <v>75</v>
+      </c>
+      <c r="H3" s="20">
+        <v>850000</v>
+      </c>
+      <c r="I3" s="20">
+        <v>800000</v>
+      </c>
+      <c r="J3" s="20">
+        <v>800000</v>
+      </c>
+      <c r="K3" s="20">
+        <v>800000</v>
+      </c>
+      <c r="L3" s="20">
+        <v>800000</v>
+      </c>
+      <c r="M3" s="20">
+        <v>800000</v>
+      </c>
+      <c r="N3" s="20">
+        <v>75</v>
+      </c>
+      <c r="O3" s="20">
+        <v>99</v>
+      </c>
+      <c r="P3" s="20">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>75</v>
+      </c>
+      <c r="R3" s="20">
+        <v>75</v>
+      </c>
+      <c r="S3" s="20">
+        <v>99</v>
+      </c>
+      <c r="T3" s="20">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20">
+        <v>1</v>
+      </c>
+      <c r="V3" s="20">
+        <v>1</v>
+      </c>
+      <c r="W3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>